--- a/public/excel/templates/探索营老师导入模板.xlsx
+++ b/public/excel/templates/探索营老师导入模板.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="-22640" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="临沂三中孩子名单" sheetId="1" r:id="rId1"/>
+    <sheet name="老师名单" sheetId="1" r:id="rId1"/>
     <sheet name="选项规则表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>序号</t>
   </si>
@@ -433,6 +433,80 @@
     <t>珞巴族-56</t>
     <rPh sb="0" eb="1">
       <t>luo'ba'zu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装型号</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhuang'xing'hao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所教课程</t>
+    <rPh sb="0" eb="1">
+      <t>suo'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke'cheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所教年级</t>
+    <rPh sb="0" eb="1">
+      <t>suo'jiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任职时间</t>
+    <rPh sb="0" eb="1">
+      <t>ren'zhi'shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练经历</t>
+    <rPh sb="0" eb="1">
+      <t>xun'lian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格桑花项目经历</t>
+    <rPh sb="0" eb="1">
+      <t>g's'h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang'mu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣誉经历</t>
+    <rPh sb="0" eb="1">
+      <t>rong'yu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jing'li</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -767,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -787,7 +861,7 @@
     <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -802,6 +876,30 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/templates/探索营老师导入模板.xlsx
+++ b/public/excel/templates/探索营老师导入模板.xlsx
@@ -844,7 +844,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -903,7 +903,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/public/excel/templates/探索营老师导入模板.xlsx
+++ b/public/excel/templates/探索营老师导入模板.xlsx
@@ -844,7 +844,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -853,7 +853,8 @@
     <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -874,7 +875,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
